--- a/graph/thesis.xlsx
+++ b/graph/thesis.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiizuka/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiizuka/research/thesis/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AC93B65A-1A82-7549-A1CD-C9677D13B941}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1560" windowWidth="29960" windowHeight="19180"/>
+    <workbookView xWindow="2480" yWindow="1560" windowWidth="29960" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$5:$B$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$5:$C$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$5:$D$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$5:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -92,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -155,76 +165,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3840" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US">
-                <a:latin typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t>実行</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP">
-                <a:latin typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t>時間比較</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:latin typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3840" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -266,7 +207,7 @@
                     <a:fld id="{D54116FF-B2DF-164E-BD52-E4AF716710A2}" type="VALUE">
                       <a:rPr lang="en-US">
                         <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
+                          <a:srgbClr val="0070C0"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
@@ -775,11 +716,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:latin typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                  </a:rPr>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                    <a:latin typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                  </a:rPr>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US">
                     <a:latin typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
                     <a:ea typeface="Hiragino Kaku Gothic Pro W6" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
                   </a:rPr>
-                  <a:t>実行時間 </a:t>
+                  <a:t> </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP">
@@ -1524,12 +1479,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.15467</cdr:x>
-      <cdr:y>0.61569</cdr:y>
+      <cdr:x>0.1556</cdr:x>
+      <cdr:y>0.57886</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.90804</cdr:x>
-      <cdr:y>0.61729</cdr:y>
+      <cdr:x>0.90897</cdr:x>
+      <cdr:y>0.58046</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1544,8 +1499,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2114550" y="4883150"/>
-          <a:ext cx="10299700" cy="12700"/>
+          <a:off x="2127279" y="4591030"/>
+          <a:ext cx="10299735" cy="12690"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -1554,6 +1509,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:prstDash val="sysDash"/>
         </a:ln>
       </cdr:spPr>
       <cdr:style>
@@ -1871,10 +1827,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
